--- a/results/data/CDW2.4.xlsx
+++ b/results/data/CDW2.4.xlsx
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>664859.5579999997</v>
+        <v>664859.5580000002</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2359943.454999995</v>
+        <v>2359943.454999996</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CDW2.4.xlsx
+++ b/results/data/CDW2.4.xlsx
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>664859.5580000002</v>
+        <v>616719.0219999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2359943.454999996</v>
+        <v>2283042.591999995</v>
       </c>
     </row>
   </sheetData>
